--- a/assignment1/final.xlsx
+++ b/assignment1/final.xlsx
@@ -1309,34 +1309,34 @@
         <v>0.29</v>
       </c>
       <c r="F14" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="G14" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="H14" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="I14" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="J14" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="K14" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="L14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.39</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.29</v>
       </c>
       <c r="P14" t="n">
         <v>0.71</v>
@@ -1345,16 +1345,16 @@
         <v>0.29</v>
       </c>
       <c r="R14" t="n">
-        <v>0.59</v>
+        <v>0.66</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="T14" t="n">
-        <v>0.39</v>
+        <v>0.71</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="15">
@@ -1431,40 +1431,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="C16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.53</v>
       </c>
-      <c r="D16" t="n">
+      <c r="G16" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.53</v>
       </c>
-      <c r="E16" t="n">
+      <c r="M16" t="n">
         <v>0.48</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.53</v>
       </c>
       <c r="N16" t="n">
         <v>0.55</v>
@@ -1479,10 +1479,10 @@
         <v>0.35</v>
       </c>
       <c r="R16" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="S16" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="T16" t="n">
         <v>0.55</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="C17" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="E17" t="n">
-        <v>0.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>0.53</v>
@@ -1522,19 +1522,19 @@
         <v>0.44</v>
       </c>
       <c r="J17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.27</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6</v>
       </c>
-      <c r="L17" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.44</v>
-      </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
         <v>0.5600000000000001</v>
@@ -1546,10 +1546,10 @@
         <v>0.44</v>
       </c>
       <c r="R17" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T17" t="n">
         <v>0.53</v>
@@ -1565,10 +1565,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C18" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
@@ -1583,19 +1583,19 @@
         <v>0.21</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="I18" t="n">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="K18" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="M18" t="n">
         <v>0.4</v>
@@ -1607,22 +1607,22 @@
         <v>0.21</v>
       </c>
       <c r="P18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T18" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>0.21</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.67</v>
       </c>
     </row>
     <row r="19">
@@ -1644,16 +1644,16 @@
         <v>0.32</v>
       </c>
       <c r="F19" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="G19" t="n">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="H19" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="I19" t="n">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="J19" t="n">
         <v>0.78</v>
@@ -1662,28 +1662,28 @@
         <v>0.32</v>
       </c>
       <c r="L19" t="n">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
       <c r="M19" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N19" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.43</v>
       </c>
-      <c r="O19" t="n">
+      <c r="S19" t="n">
         <v>0.42</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.32</v>
       </c>
       <c r="T19" t="n">
         <v>0.78</v>
@@ -1711,10 +1711,10 @@
         <v>0.15</v>
       </c>
       <c r="F20" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1790,10 +1790,10 @@
         <v>0.02</v>
       </c>
       <c r="J21" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="K21" t="n">
-        <v>0.28</v>
+        <v>0.02</v>
       </c>
       <c r="L21" t="n">
         <v>0.73</v>
@@ -1820,10 +1820,10 @@
         <v>0.02</v>
       </c>
       <c r="T21" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="22">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="C22" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="D22" t="n">
         <v>0.85</v>
@@ -1845,10 +1845,10 @@
         <v>0.26</v>
       </c>
       <c r="F22" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="H22" t="n">
         <v>0.73</v>
@@ -1869,16 +1869,16 @@
         <v>0.28</v>
       </c>
       <c r="N22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P22" t="n">
         <v>0.73</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>0.28</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.26</v>
       </c>
       <c r="R22" t="n">
         <v>0.85</v>
@@ -1887,10 +1887,10 @@
         <v>0.26</v>
       </c>
       <c r="T22" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="U22" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
@@ -1906,10 +1906,10 @@
         <v>0.4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.35</v>
+        <v>0.59</v>
       </c>
       <c r="E23" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="F23" t="n">
         <v>0.67</v>
@@ -1918,10 +1918,10 @@
         <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I23" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="J23" t="n">
         <v>0.67</v>
@@ -1930,16 +1930,16 @@
         <v>0.4</v>
       </c>
       <c r="L23" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="M23" t="n">
-        <v>0.64</v>
+        <v>0.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="O23" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="P23" t="n">
         <v>0.67</v>
@@ -1954,10 +1954,10 @@
         <v>0.4</v>
       </c>
       <c r="T23" t="n">
-        <v>0.67</v>
+        <v>0.35</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
